--- a/documentacao/Cronograma ADI.xlsx
+++ b/documentacao/Cronograma ADI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEV_2ano_2024\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEV_2ano_2024\Desktop\ADI\Arsenal_de_Defesa_Integrada\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -336,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -534,9 +534,124 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
-      </left>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -548,209 +663,136 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,814 +1088,764 @@
     <col min="3" max="3" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.109375" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.77734375" customWidth="1"/>
-    <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:21" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-    </row>
-    <row r="2" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="39"/>
+    </row>
+    <row r="2" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="10">
         <v>28</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="10">
         <v>29</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="10">
         <v>4</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="10">
         <v>5</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="10">
         <v>11</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="10">
         <v>12</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="10">
         <v>18</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="10">
         <v>19</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="10">
         <v>25</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="10">
         <v>26</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-    </row>
-    <row r="3" spans="1:23" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="35" t="s">
+      <c r="O2" s="10">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34"/>
+      <c r="B3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-    </row>
-    <row r="4" spans="1:23" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="26" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="39" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-    </row>
-    <row r="5" spans="1:23" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="26" t="s">
+      <c r="S4" s="2"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-    </row>
-    <row r="6" spans="1:23" ht="66.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="26" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="66.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="39" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-    </row>
-    <row r="7" spans="1:23" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="26" t="s">
+      <c r="S6" s="2"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="34"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-    </row>
-    <row r="8" spans="1:23" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="26" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-    </row>
-    <row r="9" spans="1:23" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="26" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-    </row>
-    <row r="10" spans="1:23" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="26" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="34"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-    </row>
-    <row r="11" spans="1:23" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="26" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="34"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-    </row>
-    <row r="12" spans="1:23" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="26" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-    </row>
-    <row r="13" spans="1:23" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-    </row>
-    <row r="14" spans="1:23" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="26" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="34"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-    </row>
-    <row r="15" spans="1:23" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="26" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-    </row>
-    <row r="16" spans="1:23" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="35" t="s">
+      <c r="D15" s="32"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="34"/>
+      <c r="B16" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-    </row>
-    <row r="17" spans="1:23" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="26" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="34"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-    </row>
-    <row r="18" spans="1:23" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="26" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-    </row>
-    <row r="19" spans="1:23" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="26" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="34"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-    </row>
-    <row r="20" spans="1:23" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="26" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="35"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-    </row>
-    <row r="21" spans="1:23" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-    </row>
-    <row r="22" spans="1:23" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="26" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="25"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-    </row>
-    <row r="23" spans="1:23" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="26" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="25"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-    </row>
-    <row r="24" spans="1:23" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="35" t="s">
+      <c r="D23" s="32"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="25"/>
+      <c r="B24" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-    </row>
-    <row r="25" spans="1:23" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="26" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="25"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-    </row>
-    <row r="26" spans="1:23" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="38" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="1:21" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="26"/>
+      <c r="B26" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G1:O1"/>
     <mergeCell ref="F3:F26"/>
-    <mergeCell ref="G1:N1"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="D21:D23"/>

--- a/documentacao/Cronograma ADI.xlsx
+++ b/documentacao/Cronograma ADI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>CRONOGRAMA ADI</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Dias Trabalhados</t>
+  </si>
+  <si>
+    <t>Maio</t>
   </si>
 </sst>
 </file>
@@ -336,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -663,11 +666,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -726,6 +766,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -735,9 +793,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -768,6 +823,9 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -777,23 +835,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1077,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,33 +1138,38 @@
     <col min="4" max="4" width="27.109375" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="37" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="25"/>
+      <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1158,9 +1212,11 @@
         <v>26</v>
       </c>
       <c r="O2" s="10">
-        <v>27</v>
-      </c>
-      <c r="P2" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="P2" s="10">
+        <v>3</v>
+      </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -1168,18 +1224,18 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="26" t="s">
         <v>57</v>
       </c>
       <c r="G3" s="8"/>
@@ -1190,8 +1246,8 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="2"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -1199,14 +1255,14 @@
       <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="34"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="21"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -1215,25 +1271,25 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="19" t="s">
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="21"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -1242,17 +1298,17 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="1"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:21" ht="66.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="13" t="s">
         <v>10</v>
       </c>
@@ -1260,7 +1316,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -1269,19 +1325,19 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="19" t="s">
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="34"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
@@ -1289,7 +1345,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1298,8 +1354,8 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="2"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -1307,8 +1363,8 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:21" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
@@ -1316,7 +1372,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1325,8 +1381,8 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="2"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -1334,8 +1390,8 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:21" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="34"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
@@ -1343,7 +1399,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -1352,8 +1408,8 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="2"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -1361,8 +1417,8 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="34"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="13" t="s">
         <v>18</v>
       </c>
@@ -1370,7 +1426,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -1379,8 +1435,8 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="2"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -1388,8 +1444,8 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:21" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="34"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -1397,7 +1453,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1406,8 +1462,8 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="2"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -1415,8 +1471,8 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="13" t="s">
         <v>22</v>
       </c>
@@ -1424,7 +1480,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="21"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1433,8 +1489,8 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="2"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -1442,20 +1498,20 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="32" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="35" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="21"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1464,8 +1520,8 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="2"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -1473,14 +1529,14 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="34"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1489,8 +1545,8 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="2"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -1498,14 +1554,14 @@
       <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -1514,8 +1570,8 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="2"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1523,8 +1579,8 @@
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:21" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="32" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -1534,7 +1590,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1543,8 +1599,8 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="2"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -1552,8 +1608,8 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:21" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="13" t="s">
         <v>33</v>
       </c>
@@ -1561,7 +1617,7 @@
         <v>34</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1570,8 +1626,8 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="2"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1579,8 +1635,8 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="13" t="s">
         <v>35</v>
       </c>
@@ -1588,7 +1644,7 @@
         <v>36</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1597,8 +1653,8 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="2"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1606,8 +1662,8 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:21" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="13" t="s">
         <v>37</v>
       </c>
@@ -1615,7 +1671,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="21"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1624,8 +1680,8 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="2"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1633,8 +1689,8 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="13" t="s">
         <v>39</v>
       </c>
@@ -1642,7 +1698,7 @@
         <v>40</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -1651,8 +1707,8 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="2"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1660,20 +1716,20 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="32" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="35" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -1682,8 +1738,8 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="2"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1691,14 +1747,14 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="31"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="21"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -1707,8 +1763,8 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="2"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1716,14 +1772,14 @@
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="25"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="21"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -1732,8 +1788,8 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="2"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -1741,18 +1797,18 @@
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="25"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="32" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="35" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="21"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1761,8 +1817,8 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="2"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1770,14 +1826,14 @@
       <c r="U24" s="1"/>
     </row>
     <row r="25" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="25"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="21"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -1786,8 +1842,8 @@
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="2"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -1795,7 +1851,7 @@
       <c r="U25" s="1"/>
     </row>
     <row r="26" spans="1:21" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="26"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="18" t="s">
         <v>51</v>
       </c>
@@ -1806,7 +1862,7 @@
         <v>53</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -1814,9 +1870,9 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="2"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="22"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -1843,8 +1899,9 @@
       <c r="U27" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="G1:O1"/>
+  <mergeCells count="17">
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="F3:F26"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="B21:B23"/>

--- a/documentacao/Cronograma ADI.xlsx
+++ b/documentacao/Cronograma ADI.xlsx
@@ -339,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -703,11 +703,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -832,17 +876,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,7 +1183,7 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,8 +1193,10 @@
     <col min="3" max="3" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.109375" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" customWidth="1"/>
+    <col min="20" max="20" width="27.88671875" customWidth="1"/>
+    <col min="21" max="21" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1162,11 +1220,12 @@
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
       <c r="N1" s="25"/>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="R1" s="2"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
@@ -1211,14 +1270,18 @@
       <c r="N2" s="10">
         <v>26</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="46">
         <v>2</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="46">
         <v>3</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="Q2" s="46">
+        <v>9</v>
+      </c>
+      <c r="R2" s="46">
+        <v>10</v>
+      </c>
       <c r="S2" s="2"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -1231,7 +1294,7 @@
       <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6"/>
@@ -1241,18 +1304,16 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="7"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="20"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40"/>
@@ -1260,26 +1321,26 @@
       <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="3"/>
       <c r="F4" s="27"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="19" t="s">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40"/>
@@ -1287,24 +1348,24 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="3"/>
       <c r="F5" s="27"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="15"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="2"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="1"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="66.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40"/>
@@ -1320,20 +1381,20 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="4"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="19" t="s">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="40"/>
@@ -1349,18 +1410,16 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="4"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="21"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:21" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="40"/>
@@ -1376,15 +1435,15 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="21"/>
       <c r="S8" s="2"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1403,15 +1462,15 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="4"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="21"/>
       <c r="S9" s="2"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -1430,15 +1489,15 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="4"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="21"/>
       <c r="S10" s="2"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1457,15 +1516,15 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="2"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1484,21 +1543,21 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="21"/>
       <c r="S12" s="2"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="45" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="32" t="s">
@@ -1515,15 +1574,15 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="21"/>
       <c r="S13" s="2"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1540,15 +1599,15 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="21"/>
       <c r="S14" s="2"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -1565,15 +1624,15 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="21"/>
       <c r="S15" s="2"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -1594,15 +1653,15 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="21"/>
       <c r="S16" s="2"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -1625,11 +1684,11 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="21"/>
       <c r="S17" s="2"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -1652,11 +1711,11 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="21"/>
       <c r="S18" s="2"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -1679,11 +1738,11 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="21"/>
       <c r="S19" s="2"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -1706,11 +1765,11 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="21"/>
       <c r="S20" s="2"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -1737,11 +1796,11 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="21"/>
       <c r="S21" s="2"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -1762,11 +1821,11 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="21"/>
       <c r="S22" s="2"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -1787,11 +1846,11 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="21"/>
       <c r="S23" s="2"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -1817,10 +1876,10 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="21"/>
       <c r="S24" s="2"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -1842,10 +1901,10 @@
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="22"/>
       <c r="S25" s="2"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -1872,9 +1931,9 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="22"/>
       <c r="S26" s="2"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -1900,8 +1959,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="O1:R1"/>
     <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:P1"/>
     <mergeCell ref="F3:F26"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="B21:B23"/>
@@ -1916,7 +1976,6 @@
     <mergeCell ref="A13:A20"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B16:B20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentacao/Cronograma ADI.xlsx
+++ b/documentacao/Cronograma ADI.xlsx
@@ -819,6 +819,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,15 +867,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -887,18 +899,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
@@ -1200,35 +1200,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="47" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="49"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1270,16 +1270,16 @@
       <c r="N2" s="10">
         <v>26</v>
       </c>
-      <c r="O2" s="46">
+      <c r="O2" s="23">
         <v>2</v>
       </c>
-      <c r="P2" s="46">
+      <c r="P2" s="23">
         <v>3</v>
       </c>
-      <c r="Q2" s="46">
+      <c r="Q2" s="23">
         <v>9</v>
       </c>
-      <c r="R2" s="46">
+      <c r="R2" s="23">
         <v>10</v>
       </c>
       <c r="S2" s="2"/>
@@ -1287,18 +1287,18 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="46" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="33" t="s">
         <v>57</v>
       </c>
       <c r="G3" s="8"/>
@@ -1316,14 +1316,14 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="27"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -1343,14 +1343,14 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="40"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="44"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="27"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -1368,8 +1368,8 @@
       <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="66.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="40"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="13" t="s">
         <v>10</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="27"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -1397,8 +1397,8 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="27"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1422,8 +1422,8 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:21" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="27"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1449,8 +1449,8 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:21" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="40"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="27"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -1476,8 +1476,8 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="40"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="13" t="s">
         <v>18</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="27"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -1503,8 +1503,8 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:21" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="40"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="27"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1530,8 +1530,8 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="13" t="s">
         <v>22</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="27"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1557,20 +1557,20 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="39" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="27"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1588,14 +1588,14 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="40"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="27"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1613,14 +1613,14 @@
       <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="40"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="37"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="27"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -1638,8 +1638,8 @@
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:21" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -1649,7 +1649,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="27"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1667,8 +1667,8 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:21" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="40"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="13" t="s">
         <v>33</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>34</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="27"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1694,8 +1694,8 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="40"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="13" t="s">
         <v>35</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>36</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="27"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1721,8 +1721,8 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:21" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="40"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="13" t="s">
         <v>37</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="27"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1748,8 +1748,8 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="41"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="13" t="s">
         <v>39</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>40</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="27"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -1775,20 +1775,20 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="39" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="27"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -1806,14 +1806,14 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="30"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="27"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -1831,14 +1831,14 @@
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="34"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="37"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="27"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -1856,18 +1856,18 @@
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="30"/>
-      <c r="B24" s="32" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="39" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="27"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1885,14 +1885,14 @@
       <c r="U24" s="1"/>
     </row>
     <row r="25" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
-      <c r="B25" s="34"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="37"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="27"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -1910,7 +1910,7 @@
       <c r="U25" s="1"/>
     </row>
     <row r="26" spans="1:21" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="31"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="18" t="s">
         <v>51</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>53</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="28"/>
+      <c r="F26" s="35"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -1959,6 +1959,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D13:D15"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="G1:N1"/>
@@ -1975,7 +1976,6 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="A13:A20"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
